--- a/data/trans_bre/P4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>13,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>40,63%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 11,01</t>
+          <t>-9,62; 13,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 12,04</t>
+          <t>-13,83; 13,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 11,09</t>
+          <t>-13,16; 13,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 8,79</t>
+          <t>-18,58; 11,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 48,53</t>
+          <t>-3,09; 18,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 51,57</t>
+          <t>-29,04; 65,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 45,84</t>
+          <t>-35,97; 60,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 34,92</t>
+          <t>-34,43; 69,9</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-41,86; 53,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 138,44</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>-17,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>-14,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>-8,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,24%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 10,3</t>
+          <t>-13,44; 6,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 12,92</t>
+          <t>-14,57; 7,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 14,22</t>
+          <t>-13,96; 8,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 14,26</t>
+          <t>-9,31; 11,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 84,59</t>
+          <t>-10,88; 11,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 107,78</t>
+          <t>-53,09; 48,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 117,92</t>
+          <t>-57,23; 62,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 121,26</t>
+          <t>-49,66; 64,95</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-41,44; 99,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,7; 70,58</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-19,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-17,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-21,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-18,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-37,13%</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-39,4%</t>
+          <t>-74,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-30,89%</t>
+          <t>-69,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-20,0%</t>
+          <t>-69,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-53,24%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-41,65%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 9,82</t>
+          <t>-63,71; 7,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 10,5</t>
+          <t>-63,72; 11,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 9,55</t>
+          <t>-62,48; 5,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 12,71</t>
+          <t>-57,3; 11,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 475,16</t>
+          <t>-36,18; 11,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 566,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-91,97; 311,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-87,77; 352,85</t>
+          <t>-100,0; 142,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 196,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-87,09; 173,8</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>-5,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,83</t>
+          <t>-11,21; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,61</t>
+          <t>-12,05; 6,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 9,01</t>
+          <t>-10,39; 6,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,36</t>
+          <t>-13,23; 6,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 41,12</t>
+          <t>-4,01; 10,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 46,97</t>
+          <t>-37,89; 31,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 48,18</t>
+          <t>-37,42; 36,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 44,08</t>
+          <t>-34,82; 37,25</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-39,63; 33,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 62,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,78</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,16%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>40,63%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.457927053501453</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.671522122396337</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.534527020020884</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.7315854688248746</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>6.612488393073693</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1316431263787527</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1329596243385779</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1741113869331438</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.02503696899091572</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3299880548062042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; 13,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,83; 13,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 13,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 11,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 18,61</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-29,04; 65,25</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-35,97; 60,79</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-34,43; 69,9</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-41,86; 53,42</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; 138,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.619126642847668</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.39904135272702</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.41177648404908</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-16.59455922721983</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.293303803194745</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2904412888233663</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2872046499501287</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2925115787938851</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4046462977313474</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1674256710237692</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.32261763091254</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.84306939429964</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.06477789405574</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.77500256841429</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>18.14490815255444</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6525220822800514</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.6624331985359073</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.7140154690629116</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5500403607950696</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.265980473693462</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-17,43%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-14,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-8,35%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-13,44; 6,04</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-14,57; 7,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,96; 8,74</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,31; 11,81</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-10,88; 11,54</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-53,09; 48,73</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-57,23; 62,46</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,66; 64,95</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-41,44; 99,27</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-37,7; 70,58</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.353932835889115</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-6.298012927023527</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.411765052786243</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.616755341142026</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.8856523425032459</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1742787931365239</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2907716205595811</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.07541270193675151</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.09689855232598442</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.03881941845517347</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-19,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-17,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-21,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-18,58</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-10,46</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-74,38%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-69,58%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-69,72%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-53,24%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-41,65%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-13.44003331134711</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-20.08560661172866</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-13.29019172756733</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-8.913794868303038</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-10.3616826810832</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.530887207508666</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6564309752586567</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5078524448066041</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.415938311086143</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3749670279802295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-63,71; 7,14</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-63,72; 11,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-62,48; 5,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-57,3; 11,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-36,18; 11,95</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 142,21</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 196,31</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-87,09; 173,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.035778606207082</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.119876366447696</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.580882467164146</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.7984727988381</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.19851981145842</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.487281412836367</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4154080892591515</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.666985086366272</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.117668471464086</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7567216260779561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,225 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-5,11%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-5,51%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-1,7%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-3,62%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,03%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-19.312693040787</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-19.00796475976463</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-21.00118108121378</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-19.30798325333689</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-10.25029270376195</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7437509309535622</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7653415415755224</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7253321816875538</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.562797370275595</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4129380073314001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,21; 5,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 6,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 6,91</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; 6,65</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 10,98</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-37,89; 31,48</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-37,42; 36,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-34,82; 37,25</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-39,63; 33,86</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; 62,15</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-63.71148069305418</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-64.70124972572077</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-59.63569363516474</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-58.69817758318757</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-35.36467759718278</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8692875575611377</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.140052244967503</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.915653585997777</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.079309583896119</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.33718003658225</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>12.39234372109316</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.044076255745691</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.520934893583142</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.702013698607806</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.19497741239136</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.2472734288463</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.05498642576898527</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.6275955945809458</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.835205044633343</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.0511299742351757</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.09058187319433567</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.002371986344199526</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.02566894298599037</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.131280292988887</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.20641065743447</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.23550761589746</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.358975682372815</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.8948635873613</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.653611914420335</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3789228208501879</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3861431833886799</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3279677913571106</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3712257280230065</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.19294885252305</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.632779930978719</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.156327559084092</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.167170647776766</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.84505081400281</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.43263527208223</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3148246188177294</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3266971488586132</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3929926057272205</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3624142819795251</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5951057995404153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1105,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
